--- a/trunk/Resources/Data/Antenne tijdstippen.xlsx
+++ b/trunk/Resources/Data/Antenne tijdstippen.xlsx
@@ -622,8 +622,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Resources/Data/Antenne tijdstippen.xlsx
+++ b/trunk/Resources/Data/Antenne tijdstippen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19320" windowHeight="9690"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="19320" windowHeight="9690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>starttijd</t>
   </si>
@@ -286,6 +286,24 @@
   </si>
   <si>
     <t>met</t>
+  </si>
+  <si>
+    <t>Average (dBm)</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>1 meter zonder antennes</t>
+  </si>
+  <si>
+    <t>5 meter zonder antenne</t>
+  </si>
+  <si>
+    <t>1m met antenne</t>
+  </si>
+  <si>
+    <t>2 atennes (5m)</t>
   </si>
 </sst>
 </file>
@@ -327,17 +345,966 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:style val="4"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RSSI with different angles (1m/na)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average (dBm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$4:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-52.896799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-53.253283302063792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-43.558441558441558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-41.102941176470587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-53.253283302063792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-41.060422960725077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-43.284883720930232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-44.850187265917604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47.742547425474257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.990291262135919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-58.133152173913047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-53.029032258064518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-51.615141955835959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-50.815151515151513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-52.326704545454547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-58.784511784511785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-56.773743016759774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-56.228412256267411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="48141824"/>
+        <c:axId val="48143744"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="48141824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle (°)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48143744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48143744"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Rssi(dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48141824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$25:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-61.181800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60.697899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-58.015900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-56.215600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-58.415500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-54.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-58.949300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-58.5623</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-58.246400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-73.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-64.475099999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-61.8217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-59.915799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-54.734200000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-57.624200000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-55.5762</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-57.016100000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-61.725900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="48242048"/>
+        <c:axId val="48264320"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="48242048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48264320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48264320"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48242048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5728574468731952E-2"/>
+          <c:y val="2.8252405949256341E-2"/>
+          <c:w val="0.92367940493924749"/>
+          <c:h val="0.89719889180519097"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$45:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-31.046299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.0442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-31.075500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32.056100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.878500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32.018700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-32.7273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.117100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-31.878499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-31.009399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-31.046700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-31.261700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-31.071400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-31.037400000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="92883968"/>
+        <c:axId val="92885760"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="92883968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92885760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92885760"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92883968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$67:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-50.398699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50.3217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-52.514899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-50.345799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-48.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-49.877400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-50.246899999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-48.247900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47.584899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-46.820799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-47.439300000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-47.704300000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-50.839599999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-51.756999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-51.1509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-50.551400000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-50.448599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-50.783499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="93200384"/>
+        <c:axId val="93201920"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="93200384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93201920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93201920"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93200384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafiek 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +1342,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -445,7 +1412,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -622,15 +1589,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J126" sqref="J126"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2258,13 +3226,462 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-52.896799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>-53.253283302063792</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>-43.558441558441558</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>-41.102941176470587</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>-53.253283302063792</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>-41.060422960725077</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>-43.284883720930232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11">
+        <v>140</v>
+      </c>
+      <c r="D11">
+        <v>-44.850187265917604</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12">
+        <v>160</v>
+      </c>
+      <c r="D12">
+        <v>-47.742547425474257</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13">
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <v>-52.990291262135919</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>-58.133152173913047</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15">
+        <v>220</v>
+      </c>
+      <c r="D15">
+        <v>-53.029032258064518</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16">
+        <v>240</v>
+      </c>
+      <c r="D16">
+        <v>-51.615141955835959</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>260</v>
+      </c>
+      <c r="D17">
+        <v>-50.815151515151513</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>280</v>
+      </c>
+      <c r="D18">
+        <v>-52.326704545454547</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="D19">
+        <v>-58.784511784511785</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>320</v>
+      </c>
+      <c r="D20">
+        <v>-56.773743016759774</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>340</v>
+      </c>
+      <c r="D21">
+        <v>-56.228412256267411</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="D25">
+        <v>-61.181800000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="D26">
+        <v>-60.697899999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="D27">
+        <v>-58.015900000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="D28">
+        <v>-56.215600000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="D29">
+        <v>-58.415500000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="D30">
+        <v>-54.652000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="D31">
+        <v>-58.949300000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="D32">
+        <v>-58.5623</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="D33">
+        <v>-58.246400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="D34">
+        <v>-73.2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35">
+        <v>-64.475099999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36">
+        <v>-61.8217</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37">
+        <v>-59.915799999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9">
+      <c r="D38">
+        <v>-54.734200000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="D39">
+        <v>-57.624200000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40">
+        <v>-55.5762</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41">
+        <v>-57.016100000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9">
+      <c r="D42">
+        <v>-61.725900000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="I44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9">
+      <c r="D45">
+        <v>-31.046299999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="D46">
+        <v>-31.0442</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="D47">
+        <v>-31.075500000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9">
+      <c r="D48">
+        <v>-32.056100000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49">
+        <v>-32.878500000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50">
+        <v>-32.018700000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51">
+        <v>-32.7273</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52">
+        <v>-32.117100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53">
+        <v>-31.878499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54">
+        <v>-31.009399999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55">
+        <v>-31.046700000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56">
+        <v>-31.261700000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57">
+        <v>-31.071400000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58">
+        <v>-31.037400000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8">
+      <c r="H66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8">
+      <c r="D67">
+        <v>-50.398699999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8">
+      <c r="D68">
+        <v>-50.3217</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8">
+      <c r="D69">
+        <v>-52.514899999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8">
+      <c r="D70">
+        <v>-50.345799999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8">
+      <c r="D71">
+        <v>-48.875</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8">
+      <c r="D72">
+        <v>-49.877400000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8">
+      <c r="D73">
+        <v>-50.246899999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8">
+      <c r="D74">
+        <v>-48.247900000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8">
+      <c r="D75">
+        <v>-47.584899999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8">
+      <c r="D76">
+        <v>-46.820799999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8">
+      <c r="D77">
+        <v>-47.439300000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8">
+      <c r="D78">
+        <v>-47.704300000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8">
+      <c r="D79">
+        <v>-50.839599999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8">
+      <c r="D80">
+        <v>-51.756999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81">
+        <v>-51.1509</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82">
+        <v>-50.551400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83">
+        <v>-50.448599999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84">
+        <v>-50.783499999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/Resources/Data/Antenne tijdstippen.xlsx
+++ b/trunk/Resources/Data/Antenne tijdstippen.xlsx
@@ -345,7 +345,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +354,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -368,26 +368,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Average RSSI with different angles (1m/na)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> RSSI with different angles (1m/na)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
     </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -402,6 +393,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Blad2!$B$4:$B$21</c:f>
@@ -529,13 +546,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="48141824"/>
-        <c:axId val="48143744"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:marker val="1"/>
+        <c:axId val="83844480"/>
+        <c:axId val="44775296"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="48141824"/>
+        <c:axId val="83844480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,14 +577,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48143744"/>
+        <c:crossAx val="44775296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48143744"/>
+        <c:axId val="44775296"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -594,7 +610,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48141824"/>
+        <c:crossAx val="83844480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -603,7 +619,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -611,7 +627,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -752,26 +768,36 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="48242048"/>
-        <c:axId val="48264320"/>
+        <c:axId val="44791680"/>
+        <c:axId val="44793216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="48242048"/>
+        <c:axId val="44791680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48264320"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44793216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48264320"/>
+        <c:axId val="44793216"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -779,7 +805,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48242048"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44791680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -788,7 +824,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -796,7 +832,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -807,10 +843,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5728574468731952E-2"/>
-          <c:y val="2.8252405949256341E-2"/>
-          <c:w val="0.92367940493924749"/>
-          <c:h val="0.89719889180519097"/>
+          <c:x val="5.5728574468731959E-2"/>
+          <c:y val="2.8252405949256338E-2"/>
+          <c:w val="0.92367940493924761"/>
+          <c:h val="0.89719889180519108"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -947,26 +983,36 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="92883968"/>
-        <c:axId val="92885760"/>
+        <c:axId val="44698240"/>
+        <c:axId val="44700032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92883968"/>
+        <c:axId val="44698240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92885760"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44700032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92885760"/>
+        <c:axId val="44700032"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="0"/>
@@ -975,7 +1021,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92883968"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44698240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -984,7 +1040,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -992,7 +1048,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1133,26 +1189,36 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="93200384"/>
-        <c:axId val="93201920"/>
+        <c:axId val="44707200"/>
+        <c:axId val="44725376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93200384"/>
+        <c:axId val="44707200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93201920"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44725376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93201920"/>
+        <c:axId val="44725376"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="0"/>
@@ -1161,7 +1227,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93200384"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44707200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1170,7 +1246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1302,9 +1378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1342,7 +1418,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1412,7 +1488,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1589,8 +1665,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70:F87"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3228,8 +3304,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Resources/Data/Antenne tijdstippen.xlsx
+++ b/trunk/Resources/Data/Antenne tijdstippen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19320" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="15030" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>starttijd</t>
   </si>
@@ -288,9 +288,6 @@
     <t>met</t>
   </si>
   <si>
-    <t>Average (dBm)</t>
-  </si>
-  <si>
     <t>Angle</t>
   </si>
   <si>
@@ -304,6 +301,12 @@
   </si>
   <si>
     <t>2 atennes (5m)</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>st dev</t>
   </si>
 </sst>
 </file>
@@ -345,7 +348,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,29 +357,22 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:style val="4"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average RSSI with different angles (1m/na)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11434411353313308"/>
+          <c:y val="2.8727034120734907E-2"/>
+          <c:w val="0.87978541297517565"/>
+          <c:h val="0.82727981918926796"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -388,13 +384,33 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average (dBm)</c:v>
+                  <c:v>1m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -547,11 +563,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83844480"/>
-        <c:axId val="44775296"/>
+        <c:axId val="83464960"/>
+        <c:axId val="83467264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83844480"/>
+        <c:axId val="83464960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,19 +588,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90751483885980144"/>
+              <c:y val="0.92592592592592593"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44775296"/>
+        <c:crossAx val="83467264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44775296"/>
+        <c:axId val="83467264"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -601,7 +624,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-BE"/>
-                  <a:t>Rssi(dBm)</a:t>
+                  <a:t>RSSI(dBm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -610,7 +633,738 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83844480"/>
+        <c:crossAx val="83464960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11434411353313309"/>
+          <c:y val="2.8727034120734907E-2"/>
+          <c:w val="0.87978541297517621"/>
+          <c:h val="0.82727981918926818"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5m</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$25:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-61.181800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60.697899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-58.015900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-56.215600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-58.415500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-54.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-58.949300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-58.5623</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-58.246400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-73.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-64.475099999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-61.8217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-59.915799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-54.734200000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-57.624200000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-55.5762</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-57.016100000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-61.725900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$4:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-52.896799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-53.253283302063792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-43.558441558441558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-41.102941176470587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-53.253283302063792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-41.060422960725077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-43.284883720930232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-44.850187265917604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47.742547425474257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.990291262135919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-58.133152173913047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-53.029032258064518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-51.615141955835959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-50.815151515151513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-52.326704545454547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-58.784511784511785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-56.773743016759774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-56.228412256267411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="51757440"/>
+        <c:axId val="51759360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="51757440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle (°)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90751483885980144"/>
+              <c:y val="0.92592592592592571"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51759360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51759360"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>RSSI(dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51757440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8927677956767176"/>
+          <c:y val="0.45794947506561678"/>
+          <c:w val="9.4117788792509982E-2"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10814109183532976"/>
+          <c:y val="2.8252405949256341E-2"/>
+          <c:w val="0.87962119647528569"/>
+          <c:h val="0.84627296587926504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$45:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-31.046299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.0442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-31.075500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32.056100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.878500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32.018700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-32.7273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.117100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-31.878499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-31.009399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-31.046700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-31.261700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-31.071400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-31.037400000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="95933568"/>
+        <c:axId val="95935104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95933568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> (°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.9079751824315021"/>
+              <c:y val="0.92592592592592593"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95935104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95935104"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>RSSI(dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95933568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -625,21 +1379,53 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:chart>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
     <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10814109183532976"/>
+          <c:y val="2.8252405949256338E-2"/>
+          <c:w val="0.87962119647528614"/>
+          <c:h val="0.84627296587926459"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5m</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Blad2!$B$4:$B$21</c:f>
@@ -705,156 +1491,97 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad2!$D$25:$D$42</c:f>
+              <c:f>Blad2!$D$67:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-61.181800000000003</c:v>
+                  <c:v>-50.398699999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60.697899999999997</c:v>
+                  <c:v>-50.3217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-58.015900000000002</c:v>
+                  <c:v>-52.514899999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-56.215600000000002</c:v>
+                  <c:v>-50.345799999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-58.415500000000002</c:v>
+                  <c:v>-48.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-54.652000000000001</c:v>
+                  <c:v>-49.877400000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-58.949300000000001</c:v>
+                  <c:v>-50.246899999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-58.5623</c:v>
+                  <c:v>-48.247900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-58.246400000000001</c:v>
+                  <c:v>-47.584899999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-73.2</c:v>
+                  <c:v>-46.820799999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-64.475099999999998</c:v>
+                  <c:v>-47.439300000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-61.8217</c:v>
+                  <c:v>-47.704300000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-59.915799999999997</c:v>
+                  <c:v>-50.839599999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-54.734200000000001</c:v>
+                  <c:v>-51.756999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-57.624200000000002</c:v>
+                  <c:v>-51.1509</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-55.5762</c:v>
+                  <c:v>-50.551400000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-57.016100000000002</c:v>
+                  <c:v>-50.448599999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-61.725900000000003</c:v>
+                  <c:v>-50.783499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="44791680"/>
-        <c:axId val="44793216"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="44791680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44793216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="44793216"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44791680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.5728574468731959E-2"/>
-          <c:y val="2.8252405949256338E-2"/>
-          <c:w val="0.92367940493924761"/>
-          <c:h val="0.89719889180519108"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>1m</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Blad2!$B$4:$B$21</c:f>
@@ -982,17 +1709,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="44698240"/>
-        <c:axId val="44700032"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:marker val="1"/>
+        <c:axId val="51709440"/>
+        <c:axId val="51768704"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="44698240"/>
+        <c:axId val="51709440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> (°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90797518243150233"/>
+              <c:y val="0.92592592592592571"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -1002,23 +1758,41 @@
             <a:pPr>
               <a:defRPr lang="nl-BE"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44700032"/>
+        <c:crossAx val="51768704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44700032"/>
+        <c:axId val="51768704"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>RSSI(dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -1028,225 +1802,37 @@
             <a:pPr>
               <a:defRPr lang="nl-BE"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44698240"/>
+        <c:crossAx val="51709440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85813472394327417"/>
+          <c:y val="0.51350503062117236"/>
+          <c:w val="9.4117788792509982E-2"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad2!$B$4:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad2!$D$67:$D$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>-50.398699999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-50.3217</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-52.514899999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-50.345799999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-48.875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-49.877400000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-50.246899999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-48.247900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-47.584899999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-46.820799999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-47.439300000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-47.704300000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-50.839599999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-51.756999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-51.1509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-50.551400000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-50.448599999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-50.783499999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="44707200"/>
-        <c:axId val="44725376"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="44707200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44725376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="44725376"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44707200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1257,15 +1843,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1292,8 +1878,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590700</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -1316,16 +1902,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>343049</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1346,15 +1932,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304950</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1378,9 +1964,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1418,7 +2004,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1488,7 +2074,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1665,8 +2251,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3247,6 +3833,9 @@
       <c r="E115" t="s">
         <v>89</v>
       </c>
+      <c r="G115" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
@@ -3259,7 +3848,7 @@
         <v>1.1443746447191974</v>
       </c>
       <c r="D116">
-        <v>5.708757335170934</v>
+        <v>5.7087573351709304</v>
       </c>
       <c r="E116">
         <v>-31.459377777777775</v>
@@ -3268,7 +3857,7 @@
         <v>0.20746666666666666</v>
       </c>
       <c r="G116">
-        <v>0.64047990146716272</v>
+        <v>0.64047990146716305</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3288,7 +3877,7 @@
         <v>-49.7727</v>
       </c>
       <c r="F117">
-        <v>0.89639444444444449</v>
+        <v>0.89639444444444405</v>
       </c>
       <c r="G117">
         <v>1.6122945753326889</v>
@@ -3304,8 +3893,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="D53" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3315,15 +3904,15 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="I2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -3472,7 +4061,12 @@
     </row>
     <row r="23" spans="2:9">
       <c r="I23" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="D24" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -3567,7 +4161,7 @@
     </row>
     <row r="44" spans="4:9">
       <c r="I44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="4:9">
@@ -3662,7 +4256,7 @@
     </row>
     <row r="66" spans="4:8">
       <c r="H66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="4:8">

--- a/trunk/Resources/Data/Antenne tijdstippen.xlsx
+++ b/trunk/Resources/Data/Antenne tijdstippen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="15030" windowHeight="8640"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="15030" windowHeight="8640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,7 +357,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -367,10 +367,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11434411353313308"/>
+          <c:x val="0.11434411353313309"/>
           <c:y val="2.8727034120734907E-2"/>
-          <c:w val="0.87978541297517565"/>
-          <c:h val="0.82727981918926796"/>
+          <c:w val="0.87978541297517587"/>
+          <c:h val="0.82727981918926807"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -563,11 +563,678 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83464960"/>
-        <c:axId val="83467264"/>
+        <c:axId val="74199424"/>
+        <c:axId val="74202112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83464960"/>
+        <c:axId val="74199424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="nl-BE"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle (°)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90751483885980144"/>
+              <c:y val="0.92592592592592582"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74202112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74202112"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="nl-BE"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>RSSI(dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="nl-BE"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74199424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11434410711827069"/>
+          <c:y val="4.2615923009623795E-2"/>
+          <c:w val="0.87978541297517654"/>
+          <c:h val="0.8272798191892683"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5m</c:v>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad2!$E$25:$E$42</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.73780000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.67490000000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.33350000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.50070000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3005</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.0575999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4737</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.5642</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.6850000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2806999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.0494000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.3849999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.36570000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.62150000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.8923999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.53139999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.29320000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.59209999999999996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad2!$E$25:$E$42</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.73780000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.67490000000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.33350000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.50070000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3005</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.0575999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4737</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.5642</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.6850000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2806999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.0494000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.3849999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.36570000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.62150000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.8923999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.53139999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.29320000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.59209999999999996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$25:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-61.181800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60.697899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-58.015900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-56.215600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-58.415500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-54.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-58.949300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-58.5623</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-58.246400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-73.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-64.475099999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-61.8217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-59.915799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-54.734200000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-57.624200000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-55.5762</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-57.016100000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-61.725900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad2!$E$4:$E$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.55795995590550118</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.99887789884811262</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.50812925153172572</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.30430000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.99887789884811262</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.2386295517873715</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.5575279390433208</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.4844573028908421</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.70429969345921217</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.3326212741605752</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.5681318518307541</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.88266056631733525</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.6867814279556389</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.1077569033468457</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.3768838193758368</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.8427127091510539</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.8210691676298939</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.6270663928634201</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad2!$E$4:$E$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.55795995590550118</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.99887789884811262</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.50812925153172572</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.30430000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.99887789884811262</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.2386295517873715</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.5575279390433208</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.4844573028908421</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.70429969345921217</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.3326212741605752</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.5681318518307541</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.88266056631733525</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.6867814279556389</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.1077569033468457</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.3768838193758368</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.8427127091510539</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.8210691676298939</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.6270663928634201</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$4:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-52.896799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-53.253283302063792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-43.558441558441558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-41.102941176470587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-53.253283302063792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-41.060422960725077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-43.284883720930232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-44.850187265917604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47.742547425474257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.990291262135919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-58.133152173913047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-53.029032258064518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-51.615141955835959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-50.815151515151513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-52.326704545454547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-58.784511784511785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-56.773743016759774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-56.228412256267411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="77435648"/>
+        <c:axId val="77437568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77435648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,21 +1260,21 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.90751483885980144"/>
-              <c:y val="0.92592592592592593"/>
+              <c:y val="0.9259259259259256"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83467264"/>
+        <c:crossAx val="77437568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83467264"/>
+        <c:axId val="77437568"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -633,438 +1300,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83464960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
-  <c:style val="1"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11434411353313309"/>
-          <c:y val="2.8727034120734907E-2"/>
-          <c:w val="0.87978541297517621"/>
-          <c:h val="0.82727981918926818"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>5m</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad2!$B$4:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad2!$D$25:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>-61.181800000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-60.697899999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58.015900000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-56.215600000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-58.415500000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-54.652000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58.949300000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-58.5623</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-58.246400000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-73.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-64.475099999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-61.8217</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-59.915799999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-54.734200000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-57.624200000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-55.5762</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-57.016100000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-61.725900000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad2!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:plus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
-            </c:plus>
-            <c:minus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad2!$B$4:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad2!$D$4:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>-52.896799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-53.253283302063792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-43.558441558441558</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-41.102941176470587</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-53.253283302063792</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-41.060422960725077</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-43.284883720930232</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-44.850187265917604</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-47.742547425474257</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-52.990291262135919</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-58.133152173913047</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-53.029032258064518</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-51.615141955835959</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-50.815151515151513</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-52.326704545454547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-58.784511784511785</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-56.773743016759774</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-56.228412256267411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="51757440"/>
-        <c:axId val="51759360"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="51757440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="t"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Angle (°)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.90751483885980144"/>
-              <c:y val="0.92592592592592571"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51759360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51759360"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVert"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>RSSI(dBm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51757440"/>
+        <c:crossAx val="77435648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,23 +1311,18 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8927677956767176"/>
-          <c:y val="0.45794947506561678"/>
-          <c:w val="9.4117788792509982E-2"/>
-          <c:h val="0.16743438320209975"/>
+          <c:x val="0.89276779567671749"/>
+          <c:y val="0.45794947506561684"/>
+          <c:w val="9.4117788792509996E-2"/>
+          <c:h val="0.1674343832020998"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1099,7 +1330,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -1108,9 +1339,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10814109183532976"/>
-          <c:y val="2.8252405949256341E-2"/>
-          <c:w val="0.87962119647528569"/>
-          <c:h val="0.84627296587926504"/>
+          <c:y val="2.8252405949256338E-2"/>
+          <c:w val="0.87962119647528592"/>
+          <c:h val="0.84627296587926482"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1269,11 +1500,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95933568"/>
-        <c:axId val="95935104"/>
+        <c:axId val="77450240"/>
+        <c:axId val="77473280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95933568"/>
+        <c:axId val="77450240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1516,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="nl-BE"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-BE"/>
@@ -1303,8 +1534,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.9079751824315021"/>
-              <c:y val="0.92592592592592593"/>
+              <c:x val="0.90797518243150221"/>
+              <c:y val="0.92592592592592582"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1317,17 +1548,17 @@
             <a:pPr>
               <a:defRPr lang="nl-BE"/>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95935104"/>
+        <c:crossAx val="77473280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95935104"/>
+        <c:axId val="77473280"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="0"/>
@@ -1341,7 +1572,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="nl-BE"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-BE"/>
@@ -1361,10 +1592,10 @@
             <a:pPr>
               <a:defRPr lang="nl-BE"/>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95933568"/>
+        <c:crossAx val="77450240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1373,7 +1604,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1381,7 +1612,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -1391,8 +1622,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10814109183532976"/>
           <c:y val="2.8252405949256338E-2"/>
-          <c:w val="0.87962119647528614"/>
-          <c:h val="0.84627296587926459"/>
+          <c:w val="0.87962119647528636"/>
+          <c:h val="0.84627296587926448"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1426,6 +1657,137 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad2!$E$67:$E$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.88109999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.95099999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.87880000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.92249999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.163</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2475000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0065999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.99919999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.89300000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.51259999999999994</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.82620000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.93630000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.80640000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.87780000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.82569999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.86040000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.88200000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.66500000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad2!$E$67:$E$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.88109999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.95099999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.87880000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.92249999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.163</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2475000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0065999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.99919999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.89300000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.51259999999999994</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.82620000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.93630000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.80640000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.87780000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.82569999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.86040000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.88200000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.66500000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Blad2!$B$4:$B$21</c:f>
@@ -1582,6 +1944,137 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad2!$E$45:$E$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.21110000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.20660000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26540000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2311</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.32819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1933</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.44740000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.32300000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.32819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.7100000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.21210000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.44159999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.25869999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.19059999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad2!$E$45:$E$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.21110000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.20660000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26540000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2311</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.32819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1933</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.44740000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.32300000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.32819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.7100000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.21210000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.44159999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.25869999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.19059999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Blad2!$B$4:$B$21</c:f>
@@ -1710,11 +2203,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51709440"/>
-        <c:axId val="51768704"/>
+        <c:axId val="77505664"/>
+        <c:axId val="77507968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51709440"/>
+        <c:axId val="77505664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +2219,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="nl-BE"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-BE"/>
@@ -1744,8 +2237,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.90797518243150233"/>
-              <c:y val="0.92592592592592571"/>
+              <c:x val="0.90797518243150244"/>
+              <c:y val="0.9259259259259256"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1758,17 +2251,17 @@
             <a:pPr>
               <a:defRPr lang="nl-BE"/>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51768704"/>
+        <c:crossAx val="77507968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51768704"/>
+        <c:axId val="77507968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="0"/>
@@ -1782,7 +2275,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="nl-BE"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-BE"/>
@@ -1802,10 +2295,10 @@
             <a:pPr>
               <a:defRPr lang="nl-BE"/>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51709440"/>
+        <c:crossAx val="77505664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1816,12 +2309,22 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85813472394327417"/>
-          <c:y val="0.51350503062117236"/>
-          <c:w val="9.4117788792509982E-2"/>
-          <c:h val="0.16743438320209975"/>
+          <c:x val="0.85813472394327428"/>
+          <c:y val="0.51350503062117259"/>
+          <c:w val="9.4117788792509996E-2"/>
+          <c:h val="0.1674343832020998"/>
         </c:manualLayout>
       </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="nl-BE"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1832,7 +2335,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1932,16 +2435,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304950</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>343050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1964,9 +2467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2004,7 +2507,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2074,7 +2577,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2251,8 +2754,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3893,8 +4396,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="D53" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3922,6 +4425,9 @@
       <c r="D4">
         <v>-52.896799999999999</v>
       </c>
+      <c r="E4">
+        <v>0.55795995590550118</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5">
@@ -3930,6 +4436,9 @@
       <c r="D5">
         <v>-53.253283302063792</v>
       </c>
+      <c r="E5">
+        <v>0.99887789884811262</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6">
@@ -3938,6 +4447,9 @@
       <c r="D6">
         <v>-43.558441558441558</v>
       </c>
+      <c r="E6">
+        <v>0.50812925153172572</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7">
@@ -3946,6 +4458,9 @@
       <c r="D7">
         <v>-41.102941176470587</v>
       </c>
+      <c r="E7">
+        <v>0.30430000000000001</v>
+      </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8">
@@ -3954,6 +4469,9 @@
       <c r="D8">
         <v>-53.253283302063792</v>
       </c>
+      <c r="E8">
+        <v>0.99887789884811262</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9">
@@ -3962,6 +4480,9 @@
       <c r="D9">
         <v>-41.060422960725077</v>
       </c>
+      <c r="E9">
+        <v>0.2386295517873715</v>
+      </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10">
@@ -3970,6 +4491,9 @@
       <c r="D10">
         <v>-43.284883720930232</v>
       </c>
+      <c r="E10">
+        <v>1.5575279390433208</v>
+      </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11">
@@ -3978,6 +4502,9 @@
       <c r="D11">
         <v>-44.850187265917604</v>
       </c>
+      <c r="E11">
+        <v>2.4844573028908421</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12">
@@ -3986,6 +4513,9 @@
       <c r="D12">
         <v>-47.742547425474257</v>
       </c>
+      <c r="E12">
+        <v>0.70429969345921217</v>
+      </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13">
@@ -3994,6 +4524,9 @@
       <c r="D13">
         <v>-52.990291262135919</v>
       </c>
+      <c r="E13">
+        <v>1.3326212741605752</v>
+      </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14">
@@ -4002,6 +4535,9 @@
       <c r="D14">
         <v>-58.133152173913047</v>
       </c>
+      <c r="E14">
+        <v>2.5681318518307541</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15">
@@ -4010,6 +4546,9 @@
       <c r="D15">
         <v>-53.029032258064518</v>
       </c>
+      <c r="E15">
+        <v>0.88266056631733525</v>
+      </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16">
@@ -4018,6 +4557,9 @@
       <c r="D16">
         <v>-51.615141955835959</v>
       </c>
+      <c r="E16">
+        <v>0.6867814279556389</v>
+      </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17">
@@ -4026,6 +4568,9 @@
       <c r="D17">
         <v>-50.815151515151513</v>
       </c>
+      <c r="E17">
+        <v>1.1077569033468457</v>
+      </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18">
@@ -4034,6 +4579,9 @@
       <c r="D18">
         <v>-52.326704545454547</v>
       </c>
+      <c r="E18">
+        <v>1.3768838193758368</v>
+      </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19">
@@ -4042,6 +4590,9 @@
       <c r="D19">
         <v>-58.784511784511785</v>
       </c>
+      <c r="E19">
+        <v>0.8427127091510539</v>
+      </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20">
@@ -4050,6 +4601,9 @@
       <c r="D20">
         <v>-56.773743016759774</v>
       </c>
+      <c r="E20">
+        <v>0.8210691676298939</v>
+      </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21">
@@ -4058,6 +4612,9 @@
       <c r="D21">
         <v>-56.228412256267411</v>
       </c>
+      <c r="E21">
+        <v>2.6270663928634201</v>
+      </c>
     </row>
     <row r="23" spans="2:9">
       <c r="I23" t="s">
@@ -4073,91 +4630,145 @@
       <c r="D25">
         <v>-61.181800000000003</v>
       </c>
+      <c r="E25">
+        <v>0.73780000000000001</v>
+      </c>
     </row>
     <row r="26" spans="2:9">
       <c r="D26">
         <v>-60.697899999999997</v>
       </c>
+      <c r="E26">
+        <v>0.67490000000000006</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
       <c r="D27">
         <v>-58.015900000000002</v>
       </c>
+      <c r="E27">
+        <v>0.33350000000000002</v>
+      </c>
     </row>
     <row r="28" spans="2:9">
       <c r="D28">
         <v>-56.215600000000002</v>
       </c>
+      <c r="E28">
+        <v>0.50070000000000003</v>
+      </c>
     </row>
     <row r="29" spans="2:9">
       <c r="D29">
         <v>-58.415500000000002</v>
       </c>
+      <c r="E29">
+        <v>1.3005</v>
+      </c>
     </row>
     <row r="30" spans="2:9">
       <c r="D30">
         <v>-54.652000000000001</v>
       </c>
+      <c r="E30">
+        <v>2.0575999999999999</v>
+      </c>
     </row>
     <row r="31" spans="2:9">
       <c r="D31">
         <v>-58.949300000000001</v>
       </c>
+      <c r="E31">
+        <v>3.4737</v>
+      </c>
     </row>
     <row r="32" spans="2:9">
       <c r="D32">
         <v>-58.5623</v>
       </c>
+      <c r="E32">
+        <v>2.5642</v>
+      </c>
     </row>
     <row r="33" spans="4:9">
       <c r="D33">
         <v>-58.246400000000001</v>
       </c>
+      <c r="E33">
+        <v>2.6850000000000001</v>
+      </c>
     </row>
     <row r="34" spans="4:9">
       <c r="D34">
         <v>-73.2</v>
       </c>
+      <c r="E34">
+        <v>1.2806999999999999</v>
+      </c>
     </row>
     <row r="35" spans="4:9">
       <c r="D35">
         <v>-64.475099999999998</v>
       </c>
+      <c r="E35">
+        <v>5.0494000000000003</v>
+      </c>
     </row>
     <row r="36" spans="4:9">
       <c r="D36">
         <v>-61.8217</v>
       </c>
+      <c r="E36">
+        <v>3.3849999999999998</v>
+      </c>
     </row>
     <row r="37" spans="4:9">
       <c r="D37">
         <v>-59.915799999999997</v>
       </c>
+      <c r="E37">
+        <v>0.36570000000000003</v>
+      </c>
     </row>
     <row r="38" spans="4:9">
       <c r="D38">
         <v>-54.734200000000001</v>
       </c>
+      <c r="E38">
+        <v>0.62150000000000005</v>
+      </c>
     </row>
     <row r="39" spans="4:9">
       <c r="D39">
         <v>-57.624200000000002</v>
       </c>
+      <c r="E39">
+        <v>2.8923999999999999</v>
+      </c>
     </row>
     <row r="40" spans="4:9">
       <c r="D40">
         <v>-55.5762</v>
       </c>
+      <c r="E40">
+        <v>0.53139999999999998</v>
+      </c>
     </row>
     <row r="41" spans="4:9">
       <c r="D41">
         <v>-57.016100000000002</v>
       </c>
+      <c r="E41">
+        <v>0.29320000000000002</v>
+      </c>
     </row>
     <row r="42" spans="4:9">
       <c r="D42">
         <v>-61.725900000000003</v>
       </c>
+      <c r="E42">
+        <v>0.59209999999999996</v>
+      </c>
     </row>
     <row r="44" spans="4:9">
       <c r="I44" t="s">
@@ -4168,90 +4779,144 @@
       <c r="D45">
         <v>-31.046299999999999</v>
       </c>
+      <c r="E45">
+        <v>0.21110000000000001</v>
+      </c>
     </row>
     <row r="46" spans="4:9">
       <c r="D46">
         <v>-31.0442</v>
       </c>
+      <c r="E46">
+        <v>0.20660000000000001</v>
+      </c>
     </row>
     <row r="47" spans="4:9">
       <c r="D47">
         <v>-31.075500000000002</v>
       </c>
+      <c r="E47">
+        <v>0.26540000000000002</v>
+      </c>
     </row>
     <row r="48" spans="4:9">
       <c r="D48">
         <v>-32.056100000000001</v>
       </c>
-    </row>
-    <row r="49" spans="4:4">
+      <c r="E48">
+        <v>0.2311</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
       <c r="D49">
         <v>-32.878500000000003</v>
       </c>
-    </row>
-    <row r="50" spans="4:4">
+      <c r="E49">
+        <v>0.32819999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
       <c r="D50">
         <v>-32.018700000000003</v>
       </c>
-    </row>
-    <row r="51" spans="4:4">
+      <c r="E50">
+        <v>0.1933</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
       <c r="D51">
         <v>-32.7273</v>
       </c>
-    </row>
-    <row r="52" spans="4:4">
+      <c r="E51">
+        <v>0.44740000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
       <c r="D52">
         <v>-32.117100000000001</v>
       </c>
-    </row>
-    <row r="53" spans="4:4">
+      <c r="E52">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
       <c r="D53">
         <v>-31.878499999999999</v>
       </c>
-    </row>
-    <row r="54" spans="4:4">
+      <c r="E53">
+        <v>0.32819999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
       <c r="D54">
         <v>-31.009399999999999</v>
       </c>
-    </row>
-    <row r="55" spans="4:4">
+      <c r="E54">
+        <v>9.7100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
       <c r="D55">
         <v>-31.046700000000001</v>
       </c>
-    </row>
-    <row r="56" spans="4:4">
+      <c r="E55">
+        <v>0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
       <c r="D56">
         <v>-31.261700000000001</v>
       </c>
-    </row>
-    <row r="57" spans="4:4">
+      <c r="E56">
+        <v>0.44159999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
       <c r="D57">
         <v>-31.071400000000001</v>
       </c>
-    </row>
-    <row r="58" spans="4:4">
+      <c r="E57">
+        <v>0.25869999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
       <c r="D58">
         <v>-31.037400000000002</v>
       </c>
-    </row>
-    <row r="59" spans="4:4">
+      <c r="E58">
+        <v>0.19059999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
       <c r="D59">
         <v>-31</v>
       </c>
-    </row>
-    <row r="60" spans="4:4">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
       <c r="D60">
         <v>-31</v>
       </c>
-    </row>
-    <row r="61" spans="4:4">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
       <c r="D61">
         <v>-31</v>
       </c>
-    </row>
-    <row r="62" spans="4:4">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
       <c r="D62">
         <v>-31</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:8">
@@ -4263,90 +4928,144 @@
       <c r="D67">
         <v>-50.398699999999998</v>
       </c>
+      <c r="E67">
+        <v>0.88109999999999999</v>
+      </c>
     </row>
     <row r="68" spans="4:8">
       <c r="D68">
         <v>-50.3217</v>
       </c>
+      <c r="E68">
+        <v>0.95099999999999996</v>
+      </c>
     </row>
     <row r="69" spans="4:8">
       <c r="D69">
         <v>-52.514899999999997</v>
       </c>
+      <c r="E69">
+        <v>0.87880000000000003</v>
+      </c>
     </row>
     <row r="70" spans="4:8">
       <c r="D70">
         <v>-50.345799999999997</v>
       </c>
+      <c r="E70">
+        <v>0.92249999999999999</v>
+      </c>
     </row>
     <row r="71" spans="4:8">
       <c r="D71">
         <v>-48.875</v>
       </c>
+      <c r="E71">
+        <v>1.163</v>
+      </c>
     </row>
     <row r="72" spans="4:8">
       <c r="D72">
         <v>-49.877400000000002</v>
       </c>
+      <c r="E72">
+        <v>1.2475000000000001</v>
+      </c>
     </row>
     <row r="73" spans="4:8">
       <c r="D73">
         <v>-50.246899999999997</v>
       </c>
+      <c r="E73">
+        <v>1.0065999999999999</v>
+      </c>
     </row>
     <row r="74" spans="4:8">
       <c r="D74">
         <v>-48.247900000000001</v>
       </c>
+      <c r="E74">
+        <v>0.99919999999999998</v>
+      </c>
     </row>
     <row r="75" spans="4:8">
       <c r="D75">
         <v>-47.584899999999998</v>
       </c>
+      <c r="E75">
+        <v>0.89300000000000002</v>
+      </c>
     </row>
     <row r="76" spans="4:8">
       <c r="D76">
         <v>-46.820799999999998</v>
       </c>
+      <c r="E76">
+        <v>0.51259999999999994</v>
+      </c>
     </row>
     <row r="77" spans="4:8">
       <c r="D77">
         <v>-47.439300000000003</v>
       </c>
+      <c r="E77">
+        <v>0.82620000000000005</v>
+      </c>
     </row>
     <row r="78" spans="4:8">
       <c r="D78">
         <v>-47.704300000000003</v>
       </c>
+      <c r="E78">
+        <v>0.93630000000000002</v>
+      </c>
     </row>
     <row r="79" spans="4:8">
       <c r="D79">
         <v>-50.839599999999997</v>
       </c>
+      <c r="E79">
+        <v>0.80640000000000001</v>
+      </c>
     </row>
     <row r="80" spans="4:8">
       <c r="D80">
         <v>-51.756999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="4:4">
+      <c r="E80">
+        <v>0.87780000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
       <c r="D81">
         <v>-51.1509</v>
       </c>
-    </row>
-    <row r="82" spans="4:4">
+      <c r="E81">
+        <v>0.82569999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
       <c r="D82">
         <v>-50.551400000000001</v>
       </c>
-    </row>
-    <row r="83" spans="4:4">
+      <c r="E82">
+        <v>0.86040000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
       <c r="D83">
         <v>-50.448599999999999</v>
       </c>
-    </row>
-    <row r="84" spans="4:4">
+      <c r="E83">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
       <c r="D84">
         <v>-50.783499999999997</v>
+      </c>
+      <c r="E84">
+        <v>0.66500000000000004</v>
       </c>
     </row>
   </sheetData>
